--- a/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/DS, DM - ĐẢNG ỦY ỦY BAN NHÂN THÀNH PHỐ ĐÀ NẴNG 2025.xlsx
+++ b/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/DS, DM - ĐẢNG ỦY ỦY BAN NHÂN THÀNH PHỐ ĐÀ NẴNG 2025.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723B210E-D58C-4DAE-AC40-BB25C5A46A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71038D16-333C-4446-8BB2-0448AE6CB9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DS" sheetId="1" r:id="rId1"/>
+    <sheet name="DS" sheetId="3" r:id="rId1"/>
     <sheet name="DM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -443,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,21 +452,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -632,91 +619,84 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,1404 +978,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJX21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016C6682-CEF2-4940-9A5A-EC403C649ACD}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="2">
         <v>1971</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="2">
         <v>1977</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="2">
         <v>1970</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="2">
         <v>1989</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="2">
         <v>1968</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="2">
         <v>1977</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="2">
         <v>1988</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="2">
         <v>1983</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="2">
         <v>1987</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="2">
         <v>1991</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="2">
         <v>1983</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="2">
         <v>1986</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="2">
         <v>1978</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="2">
         <v>1987</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="2">
         <v>1979</v>
       </c>
     </row>
-    <row r="17" spans="1:960" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="2">
         <v>1992</v>
       </c>
     </row>
-    <row r="18" spans="1:960" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="2">
         <v>1992</v>
       </c>
     </row>
-    <row r="19" spans="1:960" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="2">
         <v>1980</v>
       </c>
     </row>
-    <row r="20" spans="1:960" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="2">
         <v>1984</v>
       </c>
     </row>
-    <row r="21" spans="1:960" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="2">
         <v>1905</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
-      <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
-      <c r="AZ21" s="1"/>
-      <c r="BA21" s="1"/>
-      <c r="BB21" s="1"/>
-      <c r="BC21" s="1"/>
-      <c r="BD21" s="1"/>
-      <c r="BE21" s="1"/>
-      <c r="BF21" s="1"/>
-      <c r="BG21" s="1"/>
-      <c r="BH21" s="1"/>
-      <c r="BI21" s="1"/>
-      <c r="BJ21" s="1"/>
-      <c r="BK21" s="1"/>
-      <c r="BL21" s="1"/>
-      <c r="BM21" s="1"/>
-      <c r="BN21" s="1"/>
-      <c r="BO21" s="1"/>
-      <c r="BP21" s="1"/>
-      <c r="BQ21" s="1"/>
-      <c r="BR21" s="1"/>
-      <c r="BS21" s="1"/>
-      <c r="BT21" s="1"/>
-      <c r="BU21" s="1"/>
-      <c r="BV21" s="1"/>
-      <c r="BW21" s="1"/>
-      <c r="BX21" s="1"/>
-      <c r="BY21" s="1"/>
-      <c r="BZ21" s="1"/>
-      <c r="CA21" s="1"/>
-      <c r="CB21" s="1"/>
-      <c r="CC21" s="1"/>
-      <c r="CD21" s="1"/>
-      <c r="CE21" s="1"/>
-      <c r="CF21" s="1"/>
-      <c r="CG21" s="1"/>
-      <c r="CH21" s="1"/>
-      <c r="CI21" s="1"/>
-      <c r="CJ21" s="1"/>
-      <c r="CK21" s="1"/>
-      <c r="CL21" s="1"/>
-      <c r="CM21" s="1"/>
-      <c r="CN21" s="1"/>
-      <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
-      <c r="CQ21" s="1"/>
-      <c r="CR21" s="1"/>
-      <c r="CS21" s="1"/>
-      <c r="CT21" s="1"/>
-      <c r="CU21" s="1"/>
-      <c r="CV21" s="1"/>
-      <c r="CW21" s="1"/>
-      <c r="CX21" s="1"/>
-      <c r="CY21" s="1"/>
-      <c r="CZ21" s="1"/>
-      <c r="DA21" s="1"/>
-      <c r="DB21" s="1"/>
-      <c r="DC21" s="1"/>
-      <c r="DD21" s="1"/>
-      <c r="DE21" s="1"/>
-      <c r="DF21" s="1"/>
-      <c r="DG21" s="1"/>
-      <c r="DH21" s="1"/>
-      <c r="DI21" s="1"/>
-      <c r="DJ21" s="1"/>
-      <c r="DK21" s="1"/>
-      <c r="DL21" s="1"/>
-      <c r="DM21" s="1"/>
-      <c r="DN21" s="1"/>
-      <c r="DO21" s="1"/>
-      <c r="DP21" s="1"/>
-      <c r="DQ21" s="1"/>
-      <c r="DR21" s="1"/>
-      <c r="DS21" s="1"/>
-      <c r="DT21" s="1"/>
-      <c r="DU21" s="1"/>
-      <c r="DV21" s="1"/>
-      <c r="DW21" s="1"/>
-      <c r="DX21" s="1"/>
-      <c r="DY21" s="1"/>
-      <c r="DZ21" s="1"/>
-      <c r="EA21" s="1"/>
-      <c r="EB21" s="1"/>
-      <c r="EC21" s="1"/>
-      <c r="ED21" s="1"/>
-      <c r="EE21" s="1"/>
-      <c r="EF21" s="1"/>
-      <c r="EG21" s="1"/>
-      <c r="EH21" s="1"/>
-      <c r="EI21" s="1"/>
-      <c r="EJ21" s="1"/>
-      <c r="EK21" s="1"/>
-      <c r="EL21" s="1"/>
-      <c r="EM21" s="1"/>
-      <c r="EN21" s="1"/>
-      <c r="EO21" s="1"/>
-      <c r="EP21" s="1"/>
-      <c r="EQ21" s="1"/>
-      <c r="ER21" s="1"/>
-      <c r="ES21" s="1"/>
-      <c r="ET21" s="1"/>
-      <c r="EU21" s="1"/>
-      <c r="EV21" s="1"/>
-      <c r="EW21" s="1"/>
-      <c r="EX21" s="1"/>
-      <c r="EY21" s="1"/>
-      <c r="EZ21" s="1"/>
-      <c r="FA21" s="1"/>
-      <c r="FB21" s="1"/>
-      <c r="FC21" s="1"/>
-      <c r="FD21" s="1"/>
-      <c r="FE21" s="1"/>
-      <c r="FF21" s="1"/>
-      <c r="FG21" s="1"/>
-      <c r="FH21" s="1"/>
-      <c r="FI21" s="1"/>
-      <c r="FJ21" s="1"/>
-      <c r="FK21" s="1"/>
-      <c r="FL21" s="1"/>
-      <c r="FM21" s="1"/>
-      <c r="FN21" s="1"/>
-      <c r="FO21" s="1"/>
-      <c r="FP21" s="1"/>
-      <c r="FQ21" s="1"/>
-      <c r="FR21" s="1"/>
-      <c r="FS21" s="1"/>
-      <c r="FT21" s="1"/>
-      <c r="FU21" s="1"/>
-      <c r="FV21" s="1"/>
-      <c r="FW21" s="1"/>
-      <c r="FX21" s="1"/>
-      <c r="FY21" s="1"/>
-      <c r="FZ21" s="1"/>
-      <c r="GA21" s="1"/>
-      <c r="GB21" s="1"/>
-      <c r="GC21" s="1"/>
-      <c r="GD21" s="1"/>
-      <c r="GE21" s="1"/>
-      <c r="GF21" s="1"/>
-      <c r="GG21" s="1"/>
-      <c r="GH21" s="1"/>
-      <c r="GI21" s="1"/>
-      <c r="GJ21" s="1"/>
-      <c r="GK21" s="1"/>
-      <c r="GL21" s="1"/>
-      <c r="GM21" s="1"/>
-      <c r="GN21" s="1"/>
-      <c r="GO21" s="1"/>
-      <c r="GP21" s="1"/>
-      <c r="GQ21" s="1"/>
-      <c r="GR21" s="1"/>
-      <c r="GS21" s="1"/>
-      <c r="GT21" s="1"/>
-      <c r="GU21" s="1"/>
-      <c r="GV21" s="1"/>
-      <c r="GW21" s="1"/>
-      <c r="GX21" s="1"/>
-      <c r="GY21" s="1"/>
-      <c r="GZ21" s="1"/>
-      <c r="HA21" s="1"/>
-      <c r="HB21" s="1"/>
-      <c r="HC21" s="1"/>
-      <c r="HD21" s="1"/>
-      <c r="HE21" s="1"/>
-      <c r="HF21" s="1"/>
-      <c r="HG21" s="1"/>
-      <c r="HH21" s="1"/>
-      <c r="HI21" s="1"/>
-      <c r="HJ21" s="1"/>
-      <c r="HK21" s="1"/>
-      <c r="HL21" s="1"/>
-      <c r="HM21" s="1"/>
-      <c r="HN21" s="1"/>
-      <c r="HO21" s="1"/>
-      <c r="HP21" s="1"/>
-      <c r="HQ21" s="1"/>
-      <c r="HR21" s="1"/>
-      <c r="HS21" s="1"/>
-      <c r="HT21" s="1"/>
-      <c r="HU21" s="1"/>
-      <c r="HV21" s="1"/>
-      <c r="HW21" s="1"/>
-      <c r="HX21" s="1"/>
-      <c r="HY21" s="1"/>
-      <c r="HZ21" s="1"/>
-      <c r="IA21" s="1"/>
-      <c r="IB21" s="1"/>
-      <c r="IC21" s="1"/>
-      <c r="ID21" s="1"/>
-      <c r="IE21" s="1"/>
-      <c r="IF21" s="1"/>
-      <c r="IG21" s="1"/>
-      <c r="IH21" s="1"/>
-      <c r="II21" s="1"/>
-      <c r="IJ21" s="1"/>
-      <c r="IK21" s="1"/>
-      <c r="IL21" s="1"/>
-      <c r="IM21" s="1"/>
-      <c r="IN21" s="1"/>
-      <c r="IO21" s="1"/>
-      <c r="IP21" s="1"/>
-      <c r="IQ21" s="1"/>
-      <c r="IR21" s="1"/>
-      <c r="IS21" s="1"/>
-      <c r="IT21" s="1"/>
-      <c r="IU21" s="1"/>
-      <c r="IV21" s="1"/>
-      <c r="IW21" s="1"/>
-      <c r="IX21" s="1"/>
-      <c r="IY21" s="1"/>
-      <c r="IZ21" s="1"/>
-      <c r="JA21" s="1"/>
-      <c r="JB21" s="1"/>
-      <c r="JC21" s="1"/>
-      <c r="JD21" s="1"/>
-      <c r="JE21" s="1"/>
-      <c r="JF21" s="1"/>
-      <c r="JG21" s="1"/>
-      <c r="JH21" s="1"/>
-      <c r="JI21" s="1"/>
-      <c r="JJ21" s="1"/>
-      <c r="JK21" s="1"/>
-      <c r="JL21" s="1"/>
-      <c r="JM21" s="1"/>
-      <c r="JN21" s="1"/>
-      <c r="JO21" s="1"/>
-      <c r="JP21" s="1"/>
-      <c r="JQ21" s="1"/>
-      <c r="JR21" s="1"/>
-      <c r="JS21" s="1"/>
-      <c r="JT21" s="1"/>
-      <c r="JU21" s="1"/>
-      <c r="JV21" s="1"/>
-      <c r="JW21" s="1"/>
-      <c r="JX21" s="1"/>
-      <c r="JY21" s="1"/>
-      <c r="JZ21" s="1"/>
-      <c r="KA21" s="1"/>
-      <c r="KB21" s="1"/>
-      <c r="KC21" s="1"/>
-      <c r="KD21" s="1"/>
-      <c r="KE21" s="1"/>
-      <c r="KF21" s="1"/>
-      <c r="KG21" s="1"/>
-      <c r="KH21" s="1"/>
-      <c r="KI21" s="1"/>
-      <c r="KJ21" s="1"/>
-      <c r="KK21" s="1"/>
-      <c r="KL21" s="1"/>
-      <c r="KM21" s="1"/>
-      <c r="KN21" s="1"/>
-      <c r="KO21" s="1"/>
-      <c r="KP21" s="1"/>
-      <c r="KQ21" s="1"/>
-      <c r="KR21" s="1"/>
-      <c r="KS21" s="1"/>
-      <c r="KT21" s="1"/>
-      <c r="KU21" s="1"/>
-      <c r="KV21" s="1"/>
-      <c r="KW21" s="1"/>
-      <c r="KX21" s="1"/>
-      <c r="KY21" s="1"/>
-      <c r="KZ21" s="1"/>
-      <c r="LA21" s="1"/>
-      <c r="LB21" s="1"/>
-      <c r="LC21" s="1"/>
-      <c r="LD21" s="1"/>
-      <c r="LE21" s="1"/>
-      <c r="LF21" s="1"/>
-      <c r="LG21" s="1"/>
-      <c r="LH21" s="1"/>
-      <c r="LI21" s="1"/>
-      <c r="LJ21" s="1"/>
-      <c r="LK21" s="1"/>
-      <c r="LL21" s="1"/>
-      <c r="LM21" s="1"/>
-      <c r="LN21" s="1"/>
-      <c r="LO21" s="1"/>
-      <c r="LP21" s="1"/>
-      <c r="LQ21" s="1"/>
-      <c r="LR21" s="1"/>
-      <c r="LS21" s="1"/>
-      <c r="LT21" s="1"/>
-      <c r="LU21" s="1"/>
-      <c r="LV21" s="1"/>
-      <c r="LW21" s="1"/>
-      <c r="LX21" s="1"/>
-      <c r="LY21" s="1"/>
-      <c r="LZ21" s="1"/>
-      <c r="MA21" s="1"/>
-      <c r="MB21" s="1"/>
-      <c r="MC21" s="1"/>
-      <c r="MD21" s="1"/>
-      <c r="ME21" s="1"/>
-      <c r="MF21" s="1"/>
-      <c r="MG21" s="1"/>
-      <c r="MH21" s="1"/>
-      <c r="MI21" s="1"/>
-      <c r="MJ21" s="1"/>
-      <c r="MK21" s="1"/>
-      <c r="ML21" s="1"/>
-      <c r="MM21" s="1"/>
-      <c r="MN21" s="1"/>
-      <c r="MO21" s="1"/>
-      <c r="MP21" s="1"/>
-      <c r="MQ21" s="1"/>
-      <c r="MR21" s="1"/>
-      <c r="MS21" s="1"/>
-      <c r="MT21" s="1"/>
-      <c r="MU21" s="1"/>
-      <c r="MV21" s="1"/>
-      <c r="MW21" s="1"/>
-      <c r="MX21" s="1"/>
-      <c r="MY21" s="1"/>
-      <c r="MZ21" s="1"/>
-      <c r="NA21" s="1"/>
-      <c r="NB21" s="1"/>
-      <c r="NC21" s="1"/>
-      <c r="ND21" s="1"/>
-      <c r="NE21" s="1"/>
-      <c r="NF21" s="1"/>
-      <c r="NG21" s="1"/>
-      <c r="NH21" s="1"/>
-      <c r="NI21" s="1"/>
-      <c r="NJ21" s="1"/>
-      <c r="NK21" s="1"/>
-      <c r="NL21" s="1"/>
-      <c r="NM21" s="1"/>
-      <c r="NN21" s="1"/>
-      <c r="NO21" s="1"/>
-      <c r="NP21" s="1"/>
-      <c r="NQ21" s="1"/>
-      <c r="NR21" s="1"/>
-      <c r="NS21" s="1"/>
-      <c r="NT21" s="1"/>
-      <c r="NU21" s="1"/>
-      <c r="NV21" s="1"/>
-      <c r="NW21" s="1"/>
-      <c r="NX21" s="1"/>
-      <c r="NY21" s="1"/>
-      <c r="NZ21" s="1"/>
-      <c r="OA21" s="1"/>
-      <c r="OB21" s="1"/>
-      <c r="OC21" s="1"/>
-      <c r="OD21" s="1"/>
-      <c r="OE21" s="1"/>
-      <c r="OF21" s="1"/>
-      <c r="OG21" s="1"/>
-      <c r="OH21" s="1"/>
-      <c r="OI21" s="1"/>
-      <c r="OJ21" s="1"/>
-      <c r="OK21" s="1"/>
-      <c r="OL21" s="1"/>
-      <c r="OM21" s="1"/>
-      <c r="ON21" s="1"/>
-      <c r="OO21" s="1"/>
-      <c r="OP21" s="1"/>
-      <c r="OQ21" s="1"/>
-      <c r="OR21" s="1"/>
-      <c r="OS21" s="1"/>
-      <c r="OT21" s="1"/>
-      <c r="OU21" s="1"/>
-      <c r="OV21" s="1"/>
-      <c r="OW21" s="1"/>
-      <c r="OX21" s="1"/>
-      <c r="OY21" s="1"/>
-      <c r="OZ21" s="1"/>
-      <c r="PA21" s="1"/>
-      <c r="PB21" s="1"/>
-      <c r="PC21" s="1"/>
-      <c r="PD21" s="1"/>
-      <c r="PE21" s="1"/>
-      <c r="PF21" s="1"/>
-      <c r="PG21" s="1"/>
-      <c r="PH21" s="1"/>
-      <c r="PI21" s="1"/>
-      <c r="PJ21" s="1"/>
-      <c r="PK21" s="1"/>
-      <c r="PL21" s="1"/>
-      <c r="PM21" s="1"/>
-      <c r="PN21" s="1"/>
-      <c r="PO21" s="1"/>
-      <c r="PP21" s="1"/>
-      <c r="PQ21" s="1"/>
-      <c r="PR21" s="1"/>
-      <c r="PS21" s="1"/>
-      <c r="PT21" s="1"/>
-      <c r="PU21" s="1"/>
-      <c r="PV21" s="1"/>
-      <c r="PW21" s="1"/>
-      <c r="PX21" s="1"/>
-      <c r="PY21" s="1"/>
-      <c r="PZ21" s="1"/>
-      <c r="QA21" s="1"/>
-      <c r="QB21" s="1"/>
-      <c r="QC21" s="1"/>
-      <c r="QD21" s="1"/>
-      <c r="QE21" s="1"/>
-      <c r="QF21" s="1"/>
-      <c r="QG21" s="1"/>
-      <c r="QH21" s="1"/>
-      <c r="QI21" s="1"/>
-      <c r="QJ21" s="1"/>
-      <c r="QK21" s="1"/>
-      <c r="QL21" s="1"/>
-      <c r="QM21" s="1"/>
-      <c r="QN21" s="1"/>
-      <c r="QO21" s="1"/>
-      <c r="QP21" s="1"/>
-      <c r="QQ21" s="1"/>
-      <c r="QR21" s="1"/>
-      <c r="QS21" s="1"/>
-      <c r="QT21" s="1"/>
-      <c r="QU21" s="1"/>
-      <c r="QV21" s="1"/>
-      <c r="QW21" s="1"/>
-      <c r="QX21" s="1"/>
-      <c r="QY21" s="1"/>
-      <c r="QZ21" s="1"/>
-      <c r="RA21" s="1"/>
-      <c r="RB21" s="1"/>
-      <c r="RC21" s="1"/>
-      <c r="RD21" s="1"/>
-      <c r="RE21" s="1"/>
-      <c r="RF21" s="1"/>
-      <c r="RG21" s="1"/>
-      <c r="RH21" s="1"/>
-      <c r="RI21" s="1"/>
-      <c r="RJ21" s="1"/>
-      <c r="RK21" s="1"/>
-      <c r="RL21" s="1"/>
-      <c r="RM21" s="1"/>
-      <c r="RN21" s="1"/>
-      <c r="RO21" s="1"/>
-      <c r="RP21" s="1"/>
-      <c r="RQ21" s="1"/>
-      <c r="RR21" s="1"/>
-      <c r="RS21" s="1"/>
-      <c r="RT21" s="1"/>
-      <c r="RU21" s="1"/>
-      <c r="RV21" s="1"/>
-      <c r="RW21" s="1"/>
-      <c r="RX21" s="1"/>
-      <c r="RY21" s="1"/>
-      <c r="RZ21" s="1"/>
-      <c r="SA21" s="1"/>
-      <c r="SB21" s="1"/>
-      <c r="SC21" s="1"/>
-      <c r="SD21" s="1"/>
-      <c r="SE21" s="1"/>
-      <c r="SF21" s="1"/>
-      <c r="SG21" s="1"/>
-      <c r="SH21" s="1"/>
-      <c r="SI21" s="1"/>
-      <c r="SJ21" s="1"/>
-      <c r="SK21" s="1"/>
-      <c r="SL21" s="1"/>
-      <c r="SM21" s="1"/>
-      <c r="SN21" s="1"/>
-      <c r="SO21" s="1"/>
-      <c r="SP21" s="1"/>
-      <c r="SQ21" s="1"/>
-      <c r="SR21" s="1"/>
-      <c r="SS21" s="1"/>
-      <c r="ST21" s="1"/>
-      <c r="SU21" s="1"/>
-      <c r="SV21" s="1"/>
-      <c r="SW21" s="1"/>
-      <c r="SX21" s="1"/>
-      <c r="SY21" s="1"/>
-      <c r="SZ21" s="1"/>
-      <c r="TA21" s="1"/>
-      <c r="TB21" s="1"/>
-      <c r="TC21" s="1"/>
-      <c r="TD21" s="1"/>
-      <c r="TE21" s="1"/>
-      <c r="TF21" s="1"/>
-      <c r="TG21" s="1"/>
-      <c r="TH21" s="1"/>
-      <c r="TI21" s="1"/>
-      <c r="TJ21" s="1"/>
-      <c r="TK21" s="1"/>
-      <c r="TL21" s="1"/>
-      <c r="TM21" s="1"/>
-      <c r="TN21" s="1"/>
-      <c r="TO21" s="1"/>
-      <c r="TP21" s="1"/>
-      <c r="TQ21" s="1"/>
-      <c r="TR21" s="1"/>
-      <c r="TS21" s="1"/>
-      <c r="TT21" s="1"/>
-      <c r="TU21" s="1"/>
-      <c r="TV21" s="1"/>
-      <c r="TW21" s="1"/>
-      <c r="TX21" s="1"/>
-      <c r="TY21" s="1"/>
-      <c r="TZ21" s="1"/>
-      <c r="UA21" s="1"/>
-      <c r="UB21" s="1"/>
-      <c r="UC21" s="1"/>
-      <c r="UD21" s="1"/>
-      <c r="UE21" s="1"/>
-      <c r="UF21" s="1"/>
-      <c r="UG21" s="1"/>
-      <c r="UH21" s="1"/>
-      <c r="UI21" s="1"/>
-      <c r="UJ21" s="1"/>
-      <c r="UK21" s="1"/>
-      <c r="UL21" s="1"/>
-      <c r="UM21" s="1"/>
-      <c r="UN21" s="1"/>
-      <c r="UO21" s="1"/>
-      <c r="UP21" s="1"/>
-      <c r="UQ21" s="1"/>
-      <c r="UR21" s="1"/>
-      <c r="US21" s="1"/>
-      <c r="UT21" s="1"/>
-      <c r="UU21" s="1"/>
-      <c r="UV21" s="1"/>
-      <c r="UW21" s="1"/>
-      <c r="UX21" s="1"/>
-      <c r="UY21" s="1"/>
-      <c r="UZ21" s="1"/>
-      <c r="VA21" s="1"/>
-      <c r="VB21" s="1"/>
-      <c r="VC21" s="1"/>
-      <c r="VD21" s="1"/>
-      <c r="VE21" s="1"/>
-      <c r="VF21" s="1"/>
-      <c r="VG21" s="1"/>
-      <c r="VH21" s="1"/>
-      <c r="VI21" s="1"/>
-      <c r="VJ21" s="1"/>
-      <c r="VK21" s="1"/>
-      <c r="VL21" s="1"/>
-      <c r="VM21" s="1"/>
-      <c r="VN21" s="1"/>
-      <c r="VO21" s="1"/>
-      <c r="VP21" s="1"/>
-      <c r="VQ21" s="1"/>
-      <c r="VR21" s="1"/>
-      <c r="VS21" s="1"/>
-      <c r="VT21" s="1"/>
-      <c r="VU21" s="1"/>
-      <c r="VV21" s="1"/>
-      <c r="VW21" s="1"/>
-      <c r="VX21" s="1"/>
-      <c r="VY21" s="1"/>
-      <c r="VZ21" s="1"/>
-      <c r="WA21" s="1"/>
-      <c r="WB21" s="1"/>
-      <c r="WC21" s="1"/>
-      <c r="WD21" s="1"/>
-      <c r="WE21" s="1"/>
-      <c r="WF21" s="1"/>
-      <c r="WG21" s="1"/>
-      <c r="WH21" s="1"/>
-      <c r="WI21" s="1"/>
-      <c r="WJ21" s="1"/>
-      <c r="WK21" s="1"/>
-      <c r="WL21" s="1"/>
-      <c r="WM21" s="1"/>
-      <c r="WN21" s="1"/>
-      <c r="WO21" s="1"/>
-      <c r="WP21" s="1"/>
-      <c r="WQ21" s="1"/>
-      <c r="WR21" s="1"/>
-      <c r="WS21" s="1"/>
-      <c r="WT21" s="1"/>
-      <c r="WU21" s="1"/>
-      <c r="WV21" s="1"/>
-      <c r="WW21" s="1"/>
-      <c r="WX21" s="1"/>
-      <c r="WY21" s="1"/>
-      <c r="WZ21" s="1"/>
-      <c r="XA21" s="1"/>
-      <c r="XB21" s="1"/>
-      <c r="XC21" s="1"/>
-      <c r="XD21" s="1"/>
-      <c r="XE21" s="1"/>
-      <c r="XF21" s="1"/>
-      <c r="XG21" s="1"/>
-      <c r="XH21" s="1"/>
-      <c r="XI21" s="1"/>
-      <c r="XJ21" s="1"/>
-      <c r="XK21" s="1"/>
-      <c r="XL21" s="1"/>
-      <c r="XM21" s="1"/>
-      <c r="XN21" s="1"/>
-      <c r="XO21" s="1"/>
-      <c r="XP21" s="1"/>
-      <c r="XQ21" s="1"/>
-      <c r="XR21" s="1"/>
-      <c r="XS21" s="1"/>
-      <c r="XT21" s="1"/>
-      <c r="XU21" s="1"/>
-      <c r="XV21" s="1"/>
-      <c r="XW21" s="1"/>
-      <c r="XX21" s="1"/>
-      <c r="XY21" s="1"/>
-      <c r="XZ21" s="1"/>
-      <c r="YA21" s="1"/>
-      <c r="YB21" s="1"/>
-      <c r="YC21" s="1"/>
-      <c r="YD21" s="1"/>
-      <c r="YE21" s="1"/>
-      <c r="YF21" s="1"/>
-      <c r="YG21" s="1"/>
-      <c r="YH21" s="1"/>
-      <c r="YI21" s="1"/>
-      <c r="YJ21" s="1"/>
-      <c r="YK21" s="1"/>
-      <c r="YL21" s="1"/>
-      <c r="YM21" s="1"/>
-      <c r="YN21" s="1"/>
-      <c r="YO21" s="1"/>
-      <c r="YP21" s="1"/>
-      <c r="YQ21" s="1"/>
-      <c r="YR21" s="1"/>
-      <c r="YS21" s="1"/>
-      <c r="YT21" s="1"/>
-      <c r="YU21" s="1"/>
-      <c r="YV21" s="1"/>
-      <c r="YW21" s="1"/>
-      <c r="YX21" s="1"/>
-      <c r="YY21" s="1"/>
-      <c r="YZ21" s="1"/>
-      <c r="ZA21" s="1"/>
-      <c r="ZB21" s="1"/>
-      <c r="ZC21" s="1"/>
-      <c r="ZD21" s="1"/>
-      <c r="ZE21" s="1"/>
-      <c r="ZF21" s="1"/>
-      <c r="ZG21" s="1"/>
-      <c r="ZH21" s="1"/>
-      <c r="ZI21" s="1"/>
-      <c r="ZJ21" s="1"/>
-      <c r="ZK21" s="1"/>
-      <c r="ZL21" s="1"/>
-      <c r="ZM21" s="1"/>
-      <c r="ZN21" s="1"/>
-      <c r="ZO21" s="1"/>
-      <c r="ZP21" s="1"/>
-      <c r="ZQ21" s="1"/>
-      <c r="ZR21" s="1"/>
-      <c r="ZS21" s="1"/>
-      <c r="ZT21" s="1"/>
-      <c r="ZU21" s="1"/>
-      <c r="ZV21" s="1"/>
-      <c r="ZW21" s="1"/>
-      <c r="ZX21" s="1"/>
-      <c r="ZY21" s="1"/>
-      <c r="ZZ21" s="1"/>
-      <c r="AAA21" s="1"/>
-      <c r="AAB21" s="1"/>
-      <c r="AAC21" s="1"/>
-      <c r="AAD21" s="1"/>
-      <c r="AAE21" s="1"/>
-      <c r="AAF21" s="1"/>
-      <c r="AAG21" s="1"/>
-      <c r="AAH21" s="1"/>
-      <c r="AAI21" s="1"/>
-      <c r="AAJ21" s="1"/>
-      <c r="AAK21" s="1"/>
-      <c r="AAL21" s="1"/>
-      <c r="AAM21" s="1"/>
-      <c r="AAN21" s="1"/>
-      <c r="AAO21" s="1"/>
-      <c r="AAP21" s="1"/>
-      <c r="AAQ21" s="1"/>
-      <c r="AAR21" s="1"/>
-      <c r="AAS21" s="1"/>
-      <c r="AAT21" s="1"/>
-      <c r="AAU21" s="1"/>
-      <c r="AAV21" s="1"/>
-      <c r="AAW21" s="1"/>
-      <c r="AAX21" s="1"/>
-      <c r="AAY21" s="1"/>
-      <c r="AAZ21" s="1"/>
-      <c r="ABA21" s="1"/>
-      <c r="ABB21" s="1"/>
-      <c r="ABC21" s="1"/>
-      <c r="ABD21" s="1"/>
-      <c r="ABE21" s="1"/>
-      <c r="ABF21" s="1"/>
-      <c r="ABG21" s="1"/>
-      <c r="ABH21" s="1"/>
-      <c r="ABI21" s="1"/>
-      <c r="ABJ21" s="1"/>
-      <c r="ABK21" s="1"/>
-      <c r="ABL21" s="1"/>
-      <c r="ABM21" s="1"/>
-      <c r="ABN21" s="1"/>
-      <c r="ABO21" s="1"/>
-      <c r="ABP21" s="1"/>
-      <c r="ABQ21" s="1"/>
-      <c r="ABR21" s="1"/>
-      <c r="ABS21" s="1"/>
-      <c r="ABT21" s="1"/>
-      <c r="ABU21" s="1"/>
-      <c r="ABV21" s="1"/>
-      <c r="ABW21" s="1"/>
-      <c r="ABX21" s="1"/>
-      <c r="ABY21" s="1"/>
-      <c r="ABZ21" s="1"/>
-      <c r="ACA21" s="1"/>
-      <c r="ACB21" s="1"/>
-      <c r="ACC21" s="1"/>
-      <c r="ACD21" s="1"/>
-      <c r="ACE21" s="1"/>
-      <c r="ACF21" s="1"/>
-      <c r="ACG21" s="1"/>
-      <c r="ACH21" s="1"/>
-      <c r="ACI21" s="1"/>
-      <c r="ACJ21" s="1"/>
-      <c r="ACK21" s="1"/>
-      <c r="ACL21" s="1"/>
-      <c r="ACM21" s="1"/>
-      <c r="ACN21" s="1"/>
-      <c r="ACO21" s="1"/>
-      <c r="ACP21" s="1"/>
-      <c r="ACQ21" s="1"/>
-      <c r="ACR21" s="1"/>
-      <c r="ACS21" s="1"/>
-      <c r="ACT21" s="1"/>
-      <c r="ACU21" s="1"/>
-      <c r="ACV21" s="1"/>
-      <c r="ACW21" s="1"/>
-      <c r="ACX21" s="1"/>
-      <c r="ACY21" s="1"/>
-      <c r="ACZ21" s="1"/>
-      <c r="ADA21" s="1"/>
-      <c r="ADB21" s="1"/>
-      <c r="ADC21" s="1"/>
-      <c r="ADD21" s="1"/>
-      <c r="ADE21" s="1"/>
-      <c r="ADF21" s="1"/>
-      <c r="ADG21" s="1"/>
-      <c r="ADH21" s="1"/>
-      <c r="ADI21" s="1"/>
-      <c r="ADJ21" s="1"/>
-      <c r="ADK21" s="1"/>
-      <c r="ADL21" s="1"/>
-      <c r="ADM21" s="1"/>
-      <c r="ADN21" s="1"/>
-      <c r="ADO21" s="1"/>
-      <c r="ADP21" s="1"/>
-      <c r="ADQ21" s="1"/>
-      <c r="ADR21" s="1"/>
-      <c r="ADS21" s="1"/>
-      <c r="ADT21" s="1"/>
-      <c r="ADU21" s="1"/>
-      <c r="ADV21" s="1"/>
-      <c r="ADW21" s="1"/>
-      <c r="ADX21" s="1"/>
-      <c r="ADY21" s="1"/>
-      <c r="ADZ21" s="1"/>
-      <c r="AEA21" s="1"/>
-      <c r="AEB21" s="1"/>
-      <c r="AEC21" s="1"/>
-      <c r="AED21" s="1"/>
-      <c r="AEE21" s="1"/>
-      <c r="AEF21" s="1"/>
-      <c r="AEG21" s="1"/>
-      <c r="AEH21" s="1"/>
-      <c r="AEI21" s="1"/>
-      <c r="AEJ21" s="1"/>
-      <c r="AEK21" s="1"/>
-      <c r="AEL21" s="1"/>
-      <c r="AEM21" s="1"/>
-      <c r="AEN21" s="1"/>
-      <c r="AEO21" s="1"/>
-      <c r="AEP21" s="1"/>
-      <c r="AEQ21" s="1"/>
-      <c r="AER21" s="1"/>
-      <c r="AES21" s="1"/>
-      <c r="AET21" s="1"/>
-      <c r="AEU21" s="1"/>
-      <c r="AEV21" s="1"/>
-      <c r="AEW21" s="1"/>
-      <c r="AEX21" s="1"/>
-      <c r="AEY21" s="1"/>
-      <c r="AEZ21" s="1"/>
-      <c r="AFA21" s="1"/>
-      <c r="AFB21" s="1"/>
-      <c r="AFC21" s="1"/>
-      <c r="AFD21" s="1"/>
-      <c r="AFE21" s="1"/>
-      <c r="AFF21" s="1"/>
-      <c r="AFG21" s="1"/>
-      <c r="AFH21" s="1"/>
-      <c r="AFI21" s="1"/>
-      <c r="AFJ21" s="1"/>
-      <c r="AFK21" s="1"/>
-      <c r="AFL21" s="1"/>
-      <c r="AFM21" s="1"/>
-      <c r="AFN21" s="1"/>
-      <c r="AFO21" s="1"/>
-      <c r="AFP21" s="1"/>
-      <c r="AFQ21" s="1"/>
-      <c r="AFR21" s="1"/>
-      <c r="AFS21" s="1"/>
-      <c r="AFT21" s="1"/>
-      <c r="AFU21" s="1"/>
-      <c r="AFV21" s="1"/>
-      <c r="AFW21" s="1"/>
-      <c r="AFX21" s="1"/>
-      <c r="AFY21" s="1"/>
-      <c r="AFZ21" s="1"/>
-      <c r="AGA21" s="1"/>
-      <c r="AGB21" s="1"/>
-      <c r="AGC21" s="1"/>
-      <c r="AGD21" s="1"/>
-      <c r="AGE21" s="1"/>
-      <c r="AGF21" s="1"/>
-      <c r="AGG21" s="1"/>
-      <c r="AGH21" s="1"/>
-      <c r="AGI21" s="1"/>
-      <c r="AGJ21" s="1"/>
-      <c r="AGK21" s="1"/>
-      <c r="AGL21" s="1"/>
-      <c r="AGM21" s="1"/>
-      <c r="AGN21" s="1"/>
-      <c r="AGO21" s="1"/>
-      <c r="AGP21" s="1"/>
-      <c r="AGQ21" s="1"/>
-      <c r="AGR21" s="1"/>
-      <c r="AGS21" s="1"/>
-      <c r="AGT21" s="1"/>
-      <c r="AGU21" s="1"/>
-      <c r="AGV21" s="1"/>
-      <c r="AGW21" s="1"/>
-      <c r="AGX21" s="1"/>
-      <c r="AGY21" s="1"/>
-      <c r="AGZ21" s="1"/>
-      <c r="AHA21" s="1"/>
-      <c r="AHB21" s="1"/>
-      <c r="AHC21" s="1"/>
-      <c r="AHD21" s="1"/>
-      <c r="AHE21" s="1"/>
-      <c r="AHF21" s="1"/>
-      <c r="AHG21" s="1"/>
-      <c r="AHH21" s="1"/>
-      <c r="AHI21" s="1"/>
-      <c r="AHJ21" s="1"/>
-      <c r="AHK21" s="1"/>
-      <c r="AHL21" s="1"/>
-      <c r="AHM21" s="1"/>
-      <c r="AHN21" s="1"/>
-      <c r="AHO21" s="1"/>
-      <c r="AHP21" s="1"/>
-      <c r="AHQ21" s="1"/>
-      <c r="AHR21" s="1"/>
-      <c r="AHS21" s="1"/>
-      <c r="AHT21" s="1"/>
-      <c r="AHU21" s="1"/>
-      <c r="AHV21" s="1"/>
-      <c r="AHW21" s="1"/>
-      <c r="AHX21" s="1"/>
-      <c r="AHY21" s="1"/>
-      <c r="AHZ21" s="1"/>
-      <c r="AIA21" s="1"/>
-      <c r="AIB21" s="1"/>
-      <c r="AIC21" s="1"/>
-      <c r="AID21" s="1"/>
-      <c r="AIE21" s="1"/>
-      <c r="AIF21" s="1"/>
-      <c r="AIG21" s="1"/>
-      <c r="AIH21" s="1"/>
-      <c r="AII21" s="1"/>
-      <c r="AIJ21" s="1"/>
-      <c r="AIK21" s="1"/>
-      <c r="AIL21" s="1"/>
-      <c r="AIM21" s="1"/>
-      <c r="AIN21" s="1"/>
-      <c r="AIO21" s="1"/>
-      <c r="AIP21" s="1"/>
-      <c r="AIQ21" s="1"/>
-      <c r="AIR21" s="1"/>
-      <c r="AIS21" s="1"/>
-      <c r="AIT21" s="1"/>
-      <c r="AIU21" s="1"/>
-      <c r="AIV21" s="1"/>
-      <c r="AIW21" s="1"/>
-      <c r="AIX21" s="1"/>
-      <c r="AIY21" s="1"/>
-      <c r="AIZ21" s="1"/>
-      <c r="AJA21" s="1"/>
-      <c r="AJB21" s="1"/>
-      <c r="AJC21" s="1"/>
-      <c r="AJD21" s="1"/>
-      <c r="AJE21" s="1"/>
-      <c r="AJF21" s="1"/>
-      <c r="AJG21" s="1"/>
-      <c r="AJH21" s="1"/>
-      <c r="AJI21" s="1"/>
-      <c r="AJJ21" s="1"/>
-      <c r="AJK21" s="1"/>
-      <c r="AJL21" s="1"/>
-      <c r="AJM21" s="1"/>
-      <c r="AJN21" s="1"/>
-      <c r="AJO21" s="1"/>
-      <c r="AJP21" s="1"/>
-      <c r="AJQ21" s="1"/>
-      <c r="AJR21" s="1"/>
-      <c r="AJS21" s="1"/>
-      <c r="AJT21" s="1"/>
-      <c r="AJU21" s="1"/>
-      <c r="AJV21" s="1"/>
-      <c r="AJW21" s="1"/>
-      <c r="AJX21" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation errorTitle="BHXh" error="Chỉ chọn từ danh sách" promptTitle="BHXH" prompt="Chọn từ danh sách_x000a_Không chọn mặc định là Nam" sqref="E1" xr:uid="{DE054712-D72F-4FC6-81D9-235CEC2ADF2A}">
+    <dataValidation errorTitle="BHXh" error="Chỉ chọn từ danh sách" promptTitle="BHXH" prompt="Chọn từ danh sách_x000a_Không chọn mặc định là Nam" sqref="E1" xr:uid="{CF9D715D-26DA-4ABF-B5AA-709A8F91AEB3}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2409,472 +1434,470 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="66" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="66" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="28">
+      <c r="D13" s="7"/>
+      <c r="E13" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="66" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="16">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
+      <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
+      <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16">
+      <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
+      <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A25" s="16">
-        <v>20</v>
-      </c>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A26" s="16">
+      <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="28">
+      <c r="D26" s="11"/>
+      <c r="E26" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="16">
+      <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="16">
+      <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A29" s="16">
+      <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A30" s="16">
+      <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="16">
+      <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="15">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="E2:E7"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="B18:B19"/>
@@ -2883,6 +1906,8 @@
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="E2:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/DS, DM - ĐẢNG ỦY ỦY BAN NHÂN THÀNH PHỐ ĐÀ NẴNG 2025.xlsx
+++ b/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/DS, DM - ĐẢNG ỦY ỦY BAN NHÂN THÀNH PHỐ ĐÀ NẴNG 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71038D16-333C-4446-8BB2-0448AE6CB9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA3528F-62C1-4CFF-94EC-F0A8B59A8DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,34 +668,34 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,7 +982,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1005,7 +1005,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="16" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1016,19 +1016,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2">
@@ -1036,19 +1036,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2">
@@ -1056,19 +1056,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2">
@@ -1076,19 +1076,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="2">
@@ -1096,19 +1096,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="2">
@@ -1116,19 +1116,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="2">
@@ -1136,19 +1136,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2">
@@ -1156,19 +1156,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="2">
@@ -1176,19 +1176,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="2">
@@ -1196,19 +1196,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="2">
@@ -1216,19 +1216,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="2">
@@ -1236,19 +1236,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="2">
@@ -1256,19 +1256,19 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="2">
@@ -1276,19 +1276,19 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="2">
@@ -1296,19 +1296,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="2">
@@ -1316,19 +1316,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="2">
@@ -1336,19 +1336,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="2">
@@ -1356,19 +1356,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="2">
@@ -1376,19 +1376,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="2">
@@ -1396,21 +1396,21 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="2">
-        <v>1905</v>
+        <v>1978</v>
       </c>
     </row>
   </sheetData>
@@ -1445,10 +1445,10 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="21"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="5" t="s">
         <v>68</v>
       </c>
@@ -1457,72 +1457,72 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1539,7 +1539,7 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="7" t="s">
         <v>82</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7" t="s">
         <v>84</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="7" t="s">
         <v>86</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7" t="s">
         <v>88</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="7" t="s">
         <v>89</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="21" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1695,7 +1695,7 @@
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="10" t="s">
         <v>103</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="10" t="s">
         <v>113</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="11" t="s">
         <v>115</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="21" t="s">
         <v>124</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -1855,7 +1855,7 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="11" t="s">
         <v>126</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="11" t="s">
         <v>128</v>
       </c>
@@ -1898,16 +1898,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="E2:E7"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="E2:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/DS, DM - ĐẢNG ỦY ỦY BAN NHÂN THÀNH PHỐ ĐÀ NẴNG 2025.xlsx
+++ b/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/DS, DM - ĐẢNG ỦY ỦY BAN NHÂN THÀNH PHỐ ĐÀ NẴNG 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA3528F-62C1-4CFF-94EC-F0A8B59A8DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25B7CF2-AB0F-4CA2-B274-C73EA58E1D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
   <si>
     <t>STT</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>Số lượng</t>
+  </si>
+  <si>
+    <t>048178000186</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +512,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -621,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -676,6 +686,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -982,7 +995,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1405,7 +1418,9 @@
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="E21" s="17" t="s">
         <v>26</v>
       </c>
@@ -1428,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE017E9E-0BCC-4191-B4F6-97E043849464}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1445,10 +1460,10 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="5" t="s">
         <v>68</v>
       </c>
@@ -1457,72 +1472,72 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="26">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1539,7 +1554,7 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
@@ -1554,7 +1569,7 @@
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="7" t="s">
         <v>82</v>
       </c>
@@ -1569,7 +1584,7 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="7" t="s">
         <v>84</v>
       </c>
@@ -1584,7 +1599,7 @@
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="7" t="s">
         <v>86</v>
       </c>
@@ -1599,7 +1614,7 @@
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="7" t="s">
         <v>88</v>
       </c>
@@ -1612,7 +1627,7 @@
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="7" t="s">
         <v>89</v>
       </c>
@@ -1678,7 +1693,7 @@
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1695,7 +1710,7 @@
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="10" t="s">
         <v>103</v>
       </c>
@@ -1761,7 +1776,7 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="10" t="s">
         <v>113</v>
       </c>
@@ -1776,7 +1791,7 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="11" t="s">
         <v>115</v>
       </c>
@@ -1791,7 +1806,7 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -1808,7 +1823,7 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="12" t="s">
         <v>120</v>
       </c>
@@ -1838,7 +1853,7 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>124</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -1855,7 +1870,7 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="11" t="s">
         <v>126</v>
       </c>
@@ -1870,7 +1885,7 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="11" t="s">
         <v>128</v>
       </c>
